--- a/Documentation/Эксперименты.xlsx
+++ b/Documentation/Эксперименты.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="21">
   <si>
     <t>Йен</t>
   </si>
@@ -76,14 +76,26 @@
   <si>
     <t>Дейкстра + Е-близкие</t>
   </si>
+  <si>
+    <t>Сумма</t>
+  </si>
+  <si>
+    <t>Среднее</t>
+  </si>
+  <si>
+    <t>С нарастающим итогом</t>
+  </si>
+  <si>
+    <t>Количество</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="170" formatCode="0.00000000000000000000"/>
-    <numFmt numFmtId="171" formatCode="0.00000"/>
+    <numFmt numFmtId="164" formatCode="0.00000000000000000000"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -164,40 +176,43 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -216,471 +231,6 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="ru-RU"/>
-              <a:t>Зависимость времени работы </a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="ru-RU"/>
-              <a:t>алгоритма Йена</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ru-RU" baseline="0"/>
-              <a:t>от К</a:t>
-            </a:r>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.24421522309711285"/>
-          <c:y val="2.593192427469735E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Лист1!$C$22</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Дейкстра + Йен</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Лист1!$D$21:$F$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Лист1!$D$22:$F$22</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>64.402199999999993</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>245.148</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>940.88009999999997</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Лист1!$C$23</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>А* + Йен</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Лист1!$D$21:$F$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Лист1!$D$23:$F$23</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>18.518000000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>66.793099999999995</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>268.75940000000003</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="391972032"/>
-        <c:axId val="391983232"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="391972032"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="391983232"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="391983232"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="391972032"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
@@ -806,13 +356,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -824,13 +374,13 @@
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>4.9860953678029299E-3</c:v>
+                  <c:v>5.7000000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.7855984718497697E-3</c:v>
+                  <c:v>7.58559847184977E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.1564180536003303E-2</c:v>
+                  <c:v>4.2464180536003301E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -882,13 +432,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -958,13 +508,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1034,13 +584,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1075,54 +625,21 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="393869888"/>
-        <c:axId val="393872128"/>
+        <c:axId val="242405104"/>
+        <c:axId val="242405664"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="393869888"/>
+        <c:axId val="242405104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="393872128"/>
+        <c:crossAx val="242405664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1130,7 +647,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="393872128"/>
+        <c:axId val="242405664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1181,7 +698,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="393869888"/>
+        <c:crossAx val="242405104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1227,6 +744,2812 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Зависимость времени работы</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> разных комбинаций алгооритмов от коэффициентов</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.20865708618105905"/>
+          <c:y val="1.693126298297468E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$C$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Дейкстра + Йен</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$D$16:$F$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$D$17:$F$17</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>64.402199999999993</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>245.148</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>940.88009999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$C$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>А* + Йен</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$D$16:$F$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$D$18:$F$18</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>18.518000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>66.793099999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>268.75940000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$C$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Дейкстра + Е-близкие</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$D$16:$F$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$D$19:$F$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>37.023299999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45.944000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>47.7819</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$C$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>А* + Е-близкие</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$D$16:$F$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$D$20:$F$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>42.4621</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44.590600000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36.974400000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="333215312"/>
+        <c:axId val="242410704"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="333215312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="242410704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="242410704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="333215312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Зависимость времени работы алгоритма Йена </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>от коэффициента</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>K</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$C$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Дейкстра + Йен</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$D$16:$F$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$D$17:$F$17</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>64.402199999999993</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>245.148</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>940.88009999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$C$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>А* + Йен</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$D$16:$F$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$D$18:$F$18</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>18.518000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>66.793099999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>268.75940000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="332983680"/>
+        <c:axId val="332983120"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="332983680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Коэффициент К</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd type="none"/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="332983120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="332983120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Время работы, с</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="332983680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Зависимость работы алгоритма поиска Е-близких маршрутов от коэффициента Е</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$C$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Дейкстра + Е-близкие</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$D$21:$F$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$D$22:$F$22</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>37.023299999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45.944000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>47.7819</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$C$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>А* + Е-близкие</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$D$21:$F$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$D$23:$F$23</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>42.4621</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44.590600000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36.974400000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="339555280"/>
+        <c:axId val="289177232"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="339555280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Коэффициент </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>E</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>,</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:t> км</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="289177232"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="289177232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Время работы, с</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="339555280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$C$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>А* + Йен</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$D$25:$F$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$D$26:$F$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5.7000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.58559847184977E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.2464180536003301E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$C$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Дейкстра + Йен</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$D$25:$F$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$D$27:$F$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4.9860953678029299E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.7855984718497697E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.1564180536003303E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="405599888"/>
+        <c:axId val="343207408"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="405599888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Коэффициент К</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="343207408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="343207408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Коэффициент безопасности</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="3.0555555555555555E-2"/>
+              <c:y val="0.13448232055258147"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="405599888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Зависимость </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$C$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>А* + Е-близкие</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$D$31:$F$31</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$D$32:$F$32</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3.1612491308381601E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.9860953678029299E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.9860953678029299E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$C$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Дейкстра + Е-близкие</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$D$31:$F$31</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$D$33:$F$33</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3.1612491308381601E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11027771698529699</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.152954470167948</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="286980992"/>
+        <c:axId val="286982112"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="286980992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Значение</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:t> Е, км</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="286982112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="286982112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Коэффициент безопасности</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="286980992"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -1342,8 +3665,168 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1370,8 +3853,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1472,7 +3955,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1504,10 +3987,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -1547,23 +4030,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -1668,8 +4150,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1801,20 +4283,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1828,17 +4309,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -1859,7 +4329,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1886,8 +4356,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1988,7 +4458,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -2020,10 +4490,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -2063,22 +4533,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -2183,8 +4654,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2316,19 +4787,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -2342,6 +4814,2081 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -2365,20 +6912,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>42861</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>885825</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>138111</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>123824</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Диаграмма 5"/>
+        <xdr:cNvPr id="7" name="Диаграмма 6"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2395,20 +6942,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>100011</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>885824</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>847725</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>523874</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Диаграмма 6"/>
+        <xdr:cNvPr id="3" name="Диаграмма 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2418,6 +6965,126 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>252412</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>461962</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>909637</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1014412</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Диаграмма 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>52387</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>433387</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Диаграмма 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>328612</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>890587</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Диаграмма 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2689,10 +7356,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:I29"/>
+  <dimension ref="B4:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2726,186 +7393,186 @@
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="2" t="s">
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="3" t="s">
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="5" t="s">
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="5">
         <v>1.1855</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="5">
         <v>1.2025999999999999</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="5">
         <v>1.2413000000000001</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="5">
         <v>1.1627000000000001</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="5">
         <v>1.2619</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="6">
         <v>1.2721</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="7"/>
-      <c r="C9" s="4" t="s">
+      <c r="B9" s="12"/>
+      <c r="C9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="5">
         <v>64.402199999999993</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="5">
         <v>245.148</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="5">
         <v>940.88009999999997</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="5">
         <v>37.023299999999999</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="5">
         <v>45.944000000000003</v>
       </c>
-      <c r="I9" s="10">
+      <c r="I9" s="7">
         <v>47.7819</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="7"/>
-      <c r="C10" s="4" t="s">
+      <c r="B10" s="12"/>
+      <c r="C10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="5">
         <v>4.9860953678029299E-3</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="5">
         <v>6.7855984718497697E-3</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="5">
         <v>4.1564180536003303E-2</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="5">
         <v>3.1612491308381601E-4</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="5">
         <v>0.11027771698529699</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I10" s="5">
         <v>0.152954470167948</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="5">
         <v>1.1855</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="8">
         <v>1.2025999999999999</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="5">
         <v>1.2413000000000001</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11" s="7">
         <v>1.1627000000000001</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="5">
         <v>1.1855</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I11" s="5">
         <v>1.1855</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="7"/>
-      <c r="C12" s="4" t="s">
+      <c r="B12" s="12"/>
+      <c r="C12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="5">
         <v>18.518000000000001</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="5">
         <v>66.793099999999995</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="5">
         <v>268.75940000000003</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="5">
         <v>42.4621</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12" s="5">
         <v>44.590600000000002</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I12" s="5">
         <v>36.974400000000003</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="7"/>
-      <c r="C13" s="4" t="s">
+      <c r="B13" s="12"/>
+      <c r="C13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="5">
         <v>4.9860953678029299E-3</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="5">
         <v>6.7855984718497697E-3</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="5">
         <v>4.1564180536003303E-2</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="5">
         <v>3.1612491308381601E-4</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H13" s="5">
         <v>4.9860953678029299E-3</v>
       </c>
-      <c r="I13" s="8">
+      <c r="I13" s="5">
         <v>4.9860953678029299E-3</v>
       </c>
     </row>
@@ -2918,81 +7585,148 @@
       <c r="G14" s="1"/>
       <c r="I14" s="1"/>
     </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>5</v>
+      </c>
+      <c r="F16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="15">
+        <v>64.402199999999993</v>
+      </c>
+      <c r="E17" s="15">
+        <v>245.148</v>
+      </c>
+      <c r="F17" s="15">
+        <v>940.88009999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="9">
+        <v>18.518000000000001</v>
+      </c>
+      <c r="E18" s="9">
+        <v>66.793099999999995</v>
+      </c>
+      <c r="F18" s="9">
+        <v>268.75940000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="5">
+        <v>37.023299999999999</v>
+      </c>
+      <c r="E19" s="5">
+        <v>45.944000000000003</v>
+      </c>
+      <c r="F19" s="7">
+        <v>47.7819</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="5">
+        <v>42.4621</v>
+      </c>
+      <c r="E20" s="5">
+        <v>44.590600000000002</v>
+      </c>
+      <c r="F20" s="5">
+        <v>36.974400000000003</v>
+      </c>
+    </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D21">
-        <v>2</v>
+        <v>0.02</v>
       </c>
       <c r="E21">
-        <v>5</v>
+        <v>0.1</v>
       </c>
       <c r="F21">
-        <v>15</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="14">
-        <v>64.402199999999993</v>
-      </c>
-      <c r="E22" s="14">
-        <v>245.148</v>
-      </c>
-      <c r="F22" s="14">
-        <v>940.88009999999997</v>
+        <v>16</v>
+      </c>
+      <c r="D22" s="15">
+        <v>37.023299999999999</v>
+      </c>
+      <c r="E22" s="15">
+        <v>45.944000000000003</v>
+      </c>
+      <c r="F22" s="16">
+        <v>47.7819</v>
       </c>
     </row>
     <row r="23" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" s="14">
-        <v>18.518000000000001</v>
-      </c>
-      <c r="E23" s="14">
-        <v>66.793099999999995</v>
-      </c>
-      <c r="F23" s="14">
-        <v>268.75940000000003</v>
+        <v>15</v>
+      </c>
+      <c r="D23" s="15">
+        <v>42.4621</v>
+      </c>
+      <c r="E23" s="15">
+        <v>44.590600000000002</v>
+      </c>
+      <c r="F23" s="15">
+        <v>36.974400000000003</v>
       </c>
     </row>
     <row r="25" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F25">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="8">
-        <v>4.9860953678029299E-3</v>
-      </c>
-      <c r="E26" s="8">
-        <v>6.7855984718497697E-3</v>
-      </c>
-      <c r="F26" s="8">
-        <v>4.1564180536003303E-2</v>
+      <c r="D26" s="5">
+        <v>5.7000000000000002E-3</v>
+      </c>
+      <c r="E26" s="5">
+        <v>7.58559847184977E-3</v>
+      </c>
+      <c r="F26" s="5">
+        <v>4.2464180536003301E-2</v>
       </c>
     </row>
     <row r="27" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>13</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D27" s="5">
         <v>4.9860953678029299E-3</v>
       </c>
-      <c r="E27" s="8">
+      <c r="E27" s="5">
         <v>6.7855984718497697E-3</v>
       </c>
-      <c r="F27" s="8">
+      <c r="F27" s="5">
         <v>4.1564180536003303E-2</v>
       </c>
     </row>
@@ -3000,13 +7734,13 @@
       <c r="C28" t="s">
         <v>15</v>
       </c>
-      <c r="D28" s="8">
+      <c r="D28" s="5">
         <v>3.1612491308381601E-4</v>
       </c>
-      <c r="E28" s="8">
+      <c r="E28" s="5">
         <v>4.9860953678029299E-3</v>
       </c>
-      <c r="F28" s="8">
+      <c r="F28" s="5">
         <v>4.9860953678029299E-3</v>
       </c>
     </row>
@@ -3014,13 +7748,52 @@
       <c r="C29" t="s">
         <v>16</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D29" s="5">
         <v>3.1612491308381601E-4</v>
       </c>
-      <c r="E29" s="8">
+      <c r="E29" s="5">
         <v>0.11027771698529699</v>
       </c>
-      <c r="F29" s="8">
+      <c r="F29" s="5">
+        <v>0.152954470167948</v>
+      </c>
+    </row>
+    <row r="31" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D31" s="17">
+        <v>0.02</v>
+      </c>
+      <c r="E31" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="F31" s="17">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="32" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="5">
+        <v>3.1612491308381601E-4</v>
+      </c>
+      <c r="E32" s="5">
+        <v>4.9860953678029299E-3</v>
+      </c>
+      <c r="F32" s="5">
+        <v>4.9860953678029299E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" s="5">
+        <v>3.1612491308381601E-4</v>
+      </c>
+      <c r="E33" s="5">
+        <v>0.11027771698529699</v>
+      </c>
+      <c r="F33" s="5">
         <v>0.152954470167948</v>
       </c>
     </row>
